--- a/output/result_parametric.xlsx
+++ b/output/result_parametric.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>param_VaR</t>
@@ -446,29 +457,2522 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>portfolio</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="B2" t="n">
-        <v>417.160560986511</v>
+        <v>670.5513387628434</v>
       </c>
       <c r="C2" t="n">
-        <v>419.0811846947054</v>
+        <v>673.3294069965214</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>portfolio</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>44565</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5631011837177</v>
+        <v>670.6632372797685</v>
       </c>
       <c r="C3" t="n">
-        <v>658.345633079196</v>
+        <v>673.4409102752488</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B4" t="n">
+        <v>670.664226172752</v>
+      </c>
+      <c r="C4" t="n">
+        <v>673.4418972574167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="B5" t="n">
+        <v>671.0697026863236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>673.8472529395622</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B6" t="n">
+        <v>670.7777525291531</v>
+      </c>
+      <c r="C6" t="n">
+        <v>673.5562771757268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B7" t="n">
+        <v>670.9117019965088</v>
+      </c>
+      <c r="C7" t="n">
+        <v>673.6902950024451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="B8" t="n">
+        <v>670.6380976222081</v>
+      </c>
+      <c r="C8" t="n">
+        <v>673.416895518314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B9" t="n">
+        <v>670.3573270276411</v>
+      </c>
+      <c r="C9" t="n">
+        <v>673.1358853155525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="B10" t="n">
+        <v>669.9817865831865</v>
+      </c>
+      <c r="C10" t="n">
+        <v>672.7602504114329</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B11" t="n">
+        <v>669.9616663777033</v>
+      </c>
+      <c r="C11" t="n">
+        <v>672.7401425924218</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B12" t="n">
+        <v>669.9899651313099</v>
+      </c>
+      <c r="C12" t="n">
+        <v>672.7684671843763</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B13" t="n">
+        <v>670.7607405846375</v>
+      </c>
+      <c r="C13" t="n">
+        <v>673.5397776574882</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B14" t="n">
+        <v>671.009905580986</v>
+      </c>
+      <c r="C14" t="n">
+        <v>673.789041439808</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B15" t="n">
+        <v>672.0170953035431</v>
+      </c>
+      <c r="C15" t="n">
+        <v>674.7972124918215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B16" t="n">
+        <v>672.112597991234</v>
+      </c>
+      <c r="C16" t="n">
+        <v>674.8928022119144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B17" t="n">
+        <v>671.7729341887425</v>
+      </c>
+      <c r="C17" t="n">
+        <v>674.5538218878755</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B18" t="n">
+        <v>672.4855618683414</v>
+      </c>
+      <c r="C18" t="n">
+        <v>675.2660303693192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B19" t="n">
+        <v>673.445474052327</v>
+      </c>
+      <c r="C19" t="n">
+        <v>676.2271502474832</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B20" t="n">
+        <v>673.3607779171689</v>
+      </c>
+      <c r="C20" t="n">
+        <v>676.1429240057842</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B21" t="n">
+        <v>673.1920604137867</v>
+      </c>
+      <c r="C21" t="n">
+        <v>675.9741338151653</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B22" t="n">
+        <v>672.9441055662792</v>
+      </c>
+      <c r="C22" t="n">
+        <v>675.7266945312276</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B23" t="n">
+        <v>672.8600152391082</v>
+      </c>
+      <c r="C23" t="n">
+        <v>675.6427399797667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B24" t="n">
+        <v>672.919154682626</v>
+      </c>
+      <c r="C24" t="n">
+        <v>675.7018812830611</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B25" t="n">
+        <v>673.3552221034752</v>
+      </c>
+      <c r="C25" t="n">
+        <v>676.1379277280721</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B26" t="n">
+        <v>673.2694756143337</v>
+      </c>
+      <c r="C26" t="n">
+        <v>676.0524725013347</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B27" t="n">
+        <v>673.40524680622</v>
+      </c>
+      <c r="C27" t="n">
+        <v>676.1881799345429</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B28" t="n">
+        <v>673.1522285270967</v>
+      </c>
+      <c r="C28" t="n">
+        <v>675.9353096946452</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B29" t="n">
+        <v>673.5971149706693</v>
+      </c>
+      <c r="C29" t="n">
+        <v>676.3800459071572</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B30" t="n">
+        <v>673.7223391949628</v>
+      </c>
+      <c r="C30" t="n">
+        <v>676.5050549899606</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B31" t="n">
+        <v>674.9399154344301</v>
+      </c>
+      <c r="C31" t="n">
+        <v>677.7232219100042</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="B32" t="n">
+        <v>674.8407326614342</v>
+      </c>
+      <c r="C32" t="n">
+        <v>677.6242818316696</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B33" t="n">
+        <v>674.9031151081599</v>
+      </c>
+      <c r="C33" t="n">
+        <v>677.6863078218248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="B34" t="n">
+        <v>675.5467974046132</v>
+      </c>
+      <c r="C34" t="n">
+        <v>678.3300016497924</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B35" t="n">
+        <v>676.5195780819868</v>
+      </c>
+      <c r="C35" t="n">
+        <v>679.3034321891028</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B36" t="n">
+        <v>678.1720789853134</v>
+      </c>
+      <c r="C36" t="n">
+        <v>680.9575388161084</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B37" t="n">
+        <v>678.5651397005004</v>
+      </c>
+      <c r="C37" t="n">
+        <v>681.3508946634338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B38" t="n">
+        <v>678.8601316739423</v>
+      </c>
+      <c r="C38" t="n">
+        <v>681.6452717113207</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B39" t="n">
+        <v>679.4437730338232</v>
+      </c>
+      <c r="C39" t="n">
+        <v>682.2341997461917</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B40" t="n">
+        <v>679.3789482715201</v>
+      </c>
+      <c r="C40" t="n">
+        <v>682.1706344391714</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B41" t="n">
+        <v>679.9937029128687</v>
+      </c>
+      <c r="C41" t="n">
+        <v>682.7859600647007</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B42" t="n">
+        <v>679.9739185731869</v>
+      </c>
+      <c r="C42" t="n">
+        <v>682.766903209249</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B43" t="n">
+        <v>680.3177528557753</v>
+      </c>
+      <c r="C43" t="n">
+        <v>683.1110168282066</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B44" t="n">
+        <v>680.1247043523799</v>
+      </c>
+      <c r="C44" t="n">
+        <v>682.918127786912</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B45" t="n">
+        <v>680.5910442227432</v>
+      </c>
+      <c r="C45" t="n">
+        <v>683.384895371224</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B46" t="n">
+        <v>681.6107223222753</v>
+      </c>
+      <c r="C46" t="n">
+        <v>684.4056262093582</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B47" t="n">
+        <v>681.3275098903414</v>
+      </c>
+      <c r="C47" t="n">
+        <v>684.1234840271572</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B48" t="n">
+        <v>681.4664279211502</v>
+      </c>
+      <c r="C48" t="n">
+        <v>684.2623118745869</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B49" t="n">
+        <v>681.4956486136398</v>
+      </c>
+      <c r="C49" t="n">
+        <v>684.291541220342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B50" t="n">
+        <v>681.3163659535257</v>
+      </c>
+      <c r="C50" t="n">
+        <v>684.1132958294875</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B51" t="n">
+        <v>681.0777954934765</v>
+      </c>
+      <c r="C51" t="n">
+        <v>683.8759301514438</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B52" t="n">
+        <v>681.2716562311689</v>
+      </c>
+      <c r="C52" t="n">
+        <v>684.0695434453119</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B53" t="n">
+        <v>680.6863967939189</v>
+      </c>
+      <c r="C53" t="n">
+        <v>683.4850269872932</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B54" t="n">
+        <v>680.7957144483044</v>
+      </c>
+      <c r="C54" t="n">
+        <v>683.5942092577952</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B55" t="n">
+        <v>680.6693399318792</v>
+      </c>
+      <c r="C55" t="n">
+        <v>683.4678553358826</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B56" t="n">
+        <v>680.0954152412596</v>
+      </c>
+      <c r="C56" t="n">
+        <v>682.893523022185</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B57" t="n">
+        <v>680.7882331489</v>
+      </c>
+      <c r="C57" t="n">
+        <v>683.5867440756119</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B58" t="n">
+        <v>680.3914757967414</v>
+      </c>
+      <c r="C58" t="n">
+        <v>683.1906120736912</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B59" t="n">
+        <v>679.8544026700929</v>
+      </c>
+      <c r="C59" t="n">
+        <v>682.653495359611</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B60" t="n">
+        <v>680.0592950367409</v>
+      </c>
+      <c r="C60" t="n">
+        <v>682.858401134079</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B61" t="n">
+        <v>680.013194363888</v>
+      </c>
+      <c r="C61" t="n">
+        <v>682.8123634981384</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B62" t="n">
+        <v>679.8022170840104</v>
+      </c>
+      <c r="C62" t="n">
+        <v>682.6016180397637</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B63" t="n">
+        <v>680.7268261114677</v>
+      </c>
+      <c r="C63" t="n">
+        <v>683.5269332890912</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B64" t="n">
+        <v>680.4280646564184</v>
+      </c>
+      <c r="C64" t="n">
+        <v>683.2282156465917</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B65" t="n">
+        <v>680.7306928318576</v>
+      </c>
+      <c r="C65" t="n">
+        <v>683.5309631566088</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B66" t="n">
+        <v>681.2008406478162</v>
+      </c>
+      <c r="C66" t="n">
+        <v>684.0012084953505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B67" t="n">
+        <v>680.727344084522</v>
+      </c>
+      <c r="C67" t="n">
+        <v>683.528456897704</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B68" t="n">
+        <v>680.4985472381122</v>
+      </c>
+      <c r="C68" t="n">
+        <v>683.3005748492742</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B69" t="n">
+        <v>680.9737556843666</v>
+      </c>
+      <c r="C69" t="n">
+        <v>683.7758485777958</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B70" t="n">
+        <v>681.3655384281301</v>
+      </c>
+      <c r="C70" t="n">
+        <v>684.1679570474134</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B71" t="n">
+        <v>681.4948958026107</v>
+      </c>
+      <c r="C71" t="n">
+        <v>684.2972753903541</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B72" t="n">
+        <v>681.1164597157531</v>
+      </c>
+      <c r="C72" t="n">
+        <v>683.9194067753342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B73" t="n">
+        <v>681.1143177285285</v>
+      </c>
+      <c r="C73" t="n">
+        <v>683.9172648274453</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B74" t="n">
+        <v>682.0853686044265</v>
+      </c>
+      <c r="C74" t="n">
+        <v>684.8884149676396</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B75" t="n">
+        <v>681.3248544857179</v>
+      </c>
+      <c r="C75" t="n">
+        <v>684.1277773329784</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B76" t="n">
+        <v>681.4923772928487</v>
+      </c>
+      <c r="C76" t="n">
+        <v>684.2953661063948</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B77" t="n">
+        <v>682.8020360644368</v>
+      </c>
+      <c r="C77" t="n">
+        <v>685.6062014795389</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B78" t="n">
+        <v>683.4614815094301</v>
+      </c>
+      <c r="C78" t="n">
+        <v>686.2660405699644</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B79" t="n">
+        <v>683.4824325816953</v>
+      </c>
+      <c r="C79" t="n">
+        <v>686.2869030357742</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B80" t="n">
+        <v>684.4525598540786</v>
+      </c>
+      <c r="C80" t="n">
+        <v>687.2578415415082</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B81" t="n">
+        <v>685.7915716739171</v>
+      </c>
+      <c r="C81" t="n">
+        <v>688.5985518126963</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B82" t="n">
+        <v>685.6706535867434</v>
+      </c>
+      <c r="C82" t="n">
+        <v>688.4779366845269</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B83" t="n">
+        <v>687.3038499500763</v>
+      </c>
+      <c r="C83" t="n">
+        <v>690.1132636811963</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B84" t="n">
+        <v>687.3510947315917</v>
+      </c>
+      <c r="C84" t="n">
+        <v>690.160548696429</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B85" t="n">
+        <v>687.2052877383176</v>
+      </c>
+      <c r="C85" t="n">
+        <v>690.0165064020257</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B86" t="n">
+        <v>686.8838009111732</v>
+      </c>
+      <c r="C86" t="n">
+        <v>689.6962559150488</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B87" t="n">
+        <v>688.1644298598112</v>
+      </c>
+      <c r="C87" t="n">
+        <v>690.9782857381342</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B88" t="n">
+        <v>688.2889850351094</v>
+      </c>
+      <c r="C88" t="n">
+        <v>691.1026974444158</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B89" t="n">
+        <v>691.4975797041698</v>
+      </c>
+      <c r="C89" t="n">
+        <v>694.3164903978777</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B90" t="n">
+        <v>691.4920174967192</v>
+      </c>
+      <c r="C90" t="n">
+        <v>694.3109309203046</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B91" t="n">
+        <v>691.7732569042819</v>
+      </c>
+      <c r="C91" t="n">
+        <v>694.5924424193872</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B92" t="n">
+        <v>691.8507932085449</v>
+      </c>
+      <c r="C92" t="n">
+        <v>694.6699559367789</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B93" t="n">
+        <v>691.6720569729714</v>
+      </c>
+      <c r="C93" t="n">
+        <v>694.4913942434468</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B94" t="n">
+        <v>691.7996999014267</v>
+      </c>
+      <c r="C94" t="n">
+        <v>694.6187979473925</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B95" t="n">
+        <v>691.4808456601622</v>
+      </c>
+      <c r="C95" t="n">
+        <v>694.3018813657727</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B96" t="n">
+        <v>692.5987988455836</v>
+      </c>
+      <c r="C96" t="n">
+        <v>695.4216503455773</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B97" t="n">
+        <v>692.6175048258538</v>
+      </c>
+      <c r="C97" t="n">
+        <v>695.4403564979621</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B98" t="n">
+        <v>692.968090337492</v>
+      </c>
+      <c r="C98" t="n">
+        <v>695.7904801475834</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B99" t="n">
+        <v>692.8347256194993</v>
+      </c>
+      <c r="C99" t="n">
+        <v>695.6591752054173</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B100" t="n">
+        <v>692.7813725862561</v>
+      </c>
+      <c r="C100" t="n">
+        <v>695.6058724358627</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B101" t="n">
+        <v>692.8318647503675</v>
+      </c>
+      <c r="C101" t="n">
+        <v>695.6562975835313</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B102" t="n">
+        <v>692.7893119815817</v>
+      </c>
+      <c r="C102" t="n">
+        <v>695.6141421983812</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B103" t="n">
+        <v>692.4660650186252</v>
+      </c>
+      <c r="C103" t="n">
+        <v>695.2917408040194</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B104" t="n">
+        <v>692.9320400476718</v>
+      </c>
+      <c r="C104" t="n">
+        <v>695.7579956071768</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B105" t="n">
+        <v>693.6351940458808</v>
+      </c>
+      <c r="C105" t="n">
+        <v>696.4609015252372</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B106" t="n">
+        <v>693.4154584139269</v>
+      </c>
+      <c r="C106" t="n">
+        <v>696.2426785925163</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B107" t="n">
+        <v>693.3864333895544</v>
+      </c>
+      <c r="C107" t="n">
+        <v>696.2137483134538</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B108" t="n">
+        <v>693.1220270369522</v>
+      </c>
+      <c r="C108" t="n">
+        <v>695.9492707973786</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B109" t="n">
+        <v>692.5550454750955</v>
+      </c>
+      <c r="C109" t="n">
+        <v>695.3833089993914</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B110" t="n">
+        <v>693.6013655281567</v>
+      </c>
+      <c r="C110" t="n">
+        <v>696.4305131635465</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B111" t="n">
+        <v>695.8935199324605</v>
+      </c>
+      <c r="C111" t="n">
+        <v>698.7258732524388</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B112" t="n">
+        <v>697.7231564514623</v>
+      </c>
+      <c r="C112" t="n">
+        <v>700.5569452337022</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B113" t="n">
+        <v>701.0381488926159</v>
+      </c>
+      <c r="C113" t="n">
+        <v>703.8774465344068</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B114" t="n">
+        <v>700.9446558794752</v>
+      </c>
+      <c r="C114" t="n">
+        <v>703.7841109941837</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B115" t="n">
+        <v>701.2295766003845</v>
+      </c>
+      <c r="C115" t="n">
+        <v>704.0729253930713</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B116" t="n">
+        <v>701.9526442362294</v>
+      </c>
+      <c r="C116" t="n">
+        <v>704.7962765333941</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B117" t="n">
+        <v>702.2040670281676</v>
+      </c>
+      <c r="C117" t="n">
+        <v>705.0475589448015</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B118" t="n">
+        <v>702.2904811826975</v>
+      </c>
+      <c r="C118" t="n">
+        <v>705.1363400266146</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B119" t="n">
+        <v>702.1267140717937</v>
+      </c>
+      <c r="C119" t="n">
+        <v>704.9728138050468</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B120" t="n">
+        <v>702.1625391905854</v>
+      </c>
+      <c r="C120" t="n">
+        <v>705.0085805526251</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B121" t="n">
+        <v>702.2116050889308</v>
+      </c>
+      <c r="C121" t="n">
+        <v>705.061279810192</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B122" t="n">
+        <v>702.4654976608017</v>
+      </c>
+      <c r="C122" t="n">
+        <v>705.3150010909994</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B123" t="n">
+        <v>703.0440756955522</v>
+      </c>
+      <c r="C123" t="n">
+        <v>705.8942207508135</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B124" t="n">
+        <v>702.7682662661191</v>
+      </c>
+      <c r="C124" t="n">
+        <v>705.6182981133807</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B125" t="n">
+        <v>702.5311835412704</v>
+      </c>
+      <c r="C125" t="n">
+        <v>705.3820945188272</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B126" t="n">
+        <v>701.8587499683526</v>
+      </c>
+      <c r="C126" t="n">
+        <v>704.7101303103955</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B127" t="n">
+        <v>703.2470212377484</v>
+      </c>
+      <c r="C127" t="n">
+        <v>706.0999244594332</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B128" t="n">
+        <v>703.1386620687772</v>
+      </c>
+      <c r="C128" t="n">
+        <v>705.9921447597826</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B129" t="n">
+        <v>703.1010122497482</v>
+      </c>
+      <c r="C129" t="n">
+        <v>705.9546513808418</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B130" t="n">
+        <v>702.879208379185</v>
+      </c>
+      <c r="C130" t="n">
+        <v>705.7327171316938</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B131" t="n">
+        <v>703.3969452720248</v>
+      </c>
+      <c r="C131" t="n">
+        <v>706.2504706106465</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B132" t="n">
+        <v>703.2151474171806</v>
+      </c>
+      <c r="C132" t="n">
+        <v>706.0689175419193</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B133" t="n">
+        <v>703.7228164781391</v>
+      </c>
+      <c r="C133" t="n">
+        <v>706.5768343008403</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B134" t="n">
+        <v>703.8247753889464</v>
+      </c>
+      <c r="C134" t="n">
+        <v>706.6787091258975</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B135" t="n">
+        <v>703.5938412241794</v>
+      </c>
+      <c r="C135" t="n">
+        <v>706.4480778579655</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B136" t="n">
+        <v>704.8150722428873</v>
+      </c>
+      <c r="C136" t="n">
+        <v>707.6701347596791</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B137" t="n">
+        <v>704.5035647167406</v>
+      </c>
+      <c r="C137" t="n">
+        <v>707.3600591296363</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B138" t="n">
+        <v>704.6746822268451</v>
+      </c>
+      <c r="C138" t="n">
+        <v>707.5310826436398</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B139" t="n">
+        <v>704.7007423920077</v>
+      </c>
+      <c r="C139" t="n">
+        <v>707.5570637766741</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B140" t="n">
+        <v>704.9326727107418</v>
+      </c>
+      <c r="C140" t="n">
+        <v>707.7890198883815</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B141" t="n">
+        <v>704.8764180680828</v>
+      </c>
+      <c r="C141" t="n">
+        <v>707.7327887688316</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B142" t="n">
+        <v>704.6973310157136</v>
+      </c>
+      <c r="C142" t="n">
+        <v>707.5536263925096</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B143" t="n">
+        <v>704.5524688226069</v>
+      </c>
+      <c r="C143" t="n">
+        <v>707.4087150843352</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B144" t="n">
+        <v>704.5722101030624</v>
+      </c>
+      <c r="C144" t="n">
+        <v>707.4269105434723</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B145" t="n">
+        <v>704.4788094923933</v>
+      </c>
+      <c r="C145" t="n">
+        <v>707.3341188309369</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B146" t="n">
+        <v>704.4054154248934</v>
+      </c>
+      <c r="C146" t="n">
+        <v>707.2612687910823</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B147" t="n">
+        <v>705.1134455093998</v>
+      </c>
+      <c r="C147" t="n">
+        <v>707.9697290427321</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B148" t="n">
+        <v>704.7757060532713</v>
+      </c>
+      <c r="C148" t="n">
+        <v>707.6323707834617</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B149" t="n">
+        <v>705.0980266266433</v>
+      </c>
+      <c r="C149" t="n">
+        <v>707.9547761703125</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B150" t="n">
+        <v>705.612608883619</v>
+      </c>
+      <c r="C150" t="n">
+        <v>708.4691176444085</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B151" t="n">
+        <v>705.7553727196173</v>
+      </c>
+      <c r="C151" t="n">
+        <v>708.6118688285587</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B152" t="n">
+        <v>705.7008922993318</v>
+      </c>
+      <c r="C152" t="n">
+        <v>708.557410293377</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B153" t="n">
+        <v>705.4188264605909</v>
+      </c>
+      <c r="C153" t="n">
+        <v>708.2756440008525</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B154" t="n">
+        <v>706.5071646604629</v>
+      </c>
+      <c r="C154" t="n">
+        <v>709.3649406491968</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B155" t="n">
+        <v>706.0539182013963</v>
+      </c>
+      <c r="C155" t="n">
+        <v>708.9126384112642</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B156" t="n">
+        <v>705.9172862279484</v>
+      </c>
+      <c r="C156" t="n">
+        <v>708.7761044191939</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B157" t="n">
+        <v>705.9443473264309</v>
+      </c>
+      <c r="C157" t="n">
+        <v>708.8031106618237</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B158" t="n">
+        <v>706.326007532125</v>
+      </c>
+      <c r="C158" t="n">
+        <v>709.184845048816</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B159" t="n">
+        <v>706.3659570587261</v>
+      </c>
+      <c r="C159" t="n">
+        <v>709.2248000894342</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B160" t="n">
+        <v>706.045115124236</v>
+      </c>
+      <c r="C160" t="n">
+        <v>708.9037204725573</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B161" t="n">
+        <v>706.5299167840094</v>
+      </c>
+      <c r="C161" t="n">
+        <v>709.3889507140902</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B162" t="n">
+        <v>706.8669164599341</v>
+      </c>
+      <c r="C162" t="n">
+        <v>709.7259905930732</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B163" t="n">
+        <v>706.9840762303575</v>
+      </c>
+      <c r="C163" t="n">
+        <v>709.8423226071318</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B164" t="n">
+        <v>706.426495908494</v>
+      </c>
+      <c r="C164" t="n">
+        <v>709.285858002153</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B165" t="n">
+        <v>707.8076795839679</v>
+      </c>
+      <c r="C165" t="n">
+        <v>710.6686586793385</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B166" t="n">
+        <v>707.8807530508766</v>
+      </c>
+      <c r="C166" t="n">
+        <v>710.7417511767562</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B167" t="n">
+        <v>708.4403525262042</v>
+      </c>
+      <c r="C167" t="n">
+        <v>711.301677448695</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B168" t="n">
+        <v>709.1279492187223</v>
+      </c>
+      <c r="C168" t="n">
+        <v>711.9892822666043</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B169" t="n">
+        <v>708.8938941001234</v>
+      </c>
+      <c r="C169" t="n">
+        <v>711.7553500578179</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B170" t="n">
+        <v>709.8447712535872</v>
+      </c>
+      <c r="C170" t="n">
+        <v>712.7066446310509</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B171" t="n">
+        <v>709.5285890374744</v>
+      </c>
+      <c r="C171" t="n">
+        <v>712.3904980582993</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B172" t="n">
+        <v>708.9073034028697</v>
+      </c>
+      <c r="C172" t="n">
+        <v>711.7698931689192</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B173" t="n">
+        <v>708.5636458880745</v>
+      </c>
+      <c r="C173" t="n">
+        <v>711.4268291467633</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B174" t="n">
+        <v>708.5716987278993</v>
+      </c>
+      <c r="C174" t="n">
+        <v>711.4348651164928</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B175" t="n">
+        <v>708.7986072302028</v>
+      </c>
+      <c r="C175" t="n">
+        <v>711.6617355323069</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B176" t="n">
+        <v>712.7547270997329</v>
+      </c>
+      <c r="C176" t="n">
+        <v>715.6236463097976</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B177" t="n">
+        <v>712.678680759278</v>
+      </c>
+      <c r="C177" t="n">
+        <v>715.5486461881974</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B178" t="n">
+        <v>712.5256547643621</v>
+      </c>
+      <c r="C178" t="n">
+        <v>715.3956146423006</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B179" t="n">
+        <v>712.9914133933144</v>
+      </c>
+      <c r="C179" t="n">
+        <v>715.8608900060972</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B180" t="n">
+        <v>713.2018210325277</v>
+      </c>
+      <c r="C180" t="n">
+        <v>716.0712363135972</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B181" t="n">
+        <v>713.4949029049239</v>
+      </c>
+      <c r="C181" t="n">
+        <v>716.3632177498293</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B182" t="n">
+        <v>714.1897935320467</v>
+      </c>
+      <c r="C182" t="n">
+        <v>717.05860584728</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B183" t="n">
+        <v>714.2700055483274</v>
+      </c>
+      <c r="C183" t="n">
+        <v>717.1387203353661</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B184" t="n">
+        <v>715.9316934549279</v>
+      </c>
+      <c r="C184" t="n">
+        <v>718.8026222545614</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B185" t="n">
+        <v>716.6547183854127</v>
+      </c>
+      <c r="C185" t="n">
+        <v>719.5261695439203</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B186" t="n">
+        <v>716.3736416190986</v>
+      </c>
+      <c r="C186" t="n">
+        <v>719.2450237892863</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B187" t="n">
+        <v>716.1820159815488</v>
+      </c>
+      <c r="C187" t="n">
+        <v>719.0552617162502</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B188" t="n">
+        <v>718.2163111154514</v>
+      </c>
+      <c r="C188" t="n">
+        <v>721.092122549182</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B189" t="n">
+        <v>718.8095769213014</v>
+      </c>
+      <c r="C189" t="n">
+        <v>721.6859070865921</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B190" t="n">
+        <v>718.7328407958648</v>
+      </c>
+      <c r="C190" t="n">
+        <v>721.6108477533071</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B191" t="n">
+        <v>718.7791067779835</v>
+      </c>
+      <c r="C191" t="n">
+        <v>721.6589206038952</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B192" t="n">
+        <v>719.2697688474418</v>
+      </c>
+      <c r="C192" t="n">
+        <v>722.1497173691514</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B193" t="n">
+        <v>719.8406989387368</v>
+      </c>
+      <c r="C193" t="n">
+        <v>722.7209333537085</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B194" t="n">
+        <v>720.2593745724134</v>
+      </c>
+      <c r="C194" t="n">
+        <v>723.1395803336327</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B195" t="n">
+        <v>720.1342546043616</v>
+      </c>
+      <c r="C195" t="n">
+        <v>723.0145946904013</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B196" t="n">
+        <v>720.0120119050462</v>
+      </c>
+      <c r="C196" t="n">
+        <v>722.8925189791589</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B197" t="n">
+        <v>720.6016879361159</v>
+      </c>
+      <c r="C197" t="n">
+        <v>723.4822943234376</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B198" t="n">
+        <v>720.5613893880964</v>
+      </c>
+      <c r="C198" t="n">
+        <v>723.4431143924267</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B199" t="n">
+        <v>721.8999651764643</v>
+      </c>
+      <c r="C199" t="n">
+        <v>724.7829425752716</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B200" t="n">
+        <v>721.5084954356989</v>
+      </c>
+      <c r="C200" t="n">
+        <v>724.393086137783</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B201" t="n">
+        <v>721.0967026231228</v>
+      </c>
+      <c r="C201" t="n">
+        <v>723.9830554945656</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B202" t="n">
+        <v>721.4594741935107</v>
+      </c>
+      <c r="C202" t="n">
+        <v>724.3455353263798</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B203" t="n">
+        <v>721.2642223868443</v>
+      </c>
+      <c r="C203" t="n">
+        <v>724.1502986771375</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B204" t="n">
+        <v>721.33045299474</v>
+      </c>
+      <c r="C204" t="n">
+        <v>724.2192834561592</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B205" t="n">
+        <v>721.3242090239364</v>
+      </c>
+      <c r="C205" t="n">
+        <v>724.2130792276967</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B206" t="n">
+        <v>721.0768636152006</v>
+      </c>
+      <c r="C206" t="n">
+        <v>723.9660883708457</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="B207" t="n">
+        <v>721.9903891633858</v>
+      </c>
+      <c r="C207" t="n">
+        <v>724.8804875076657</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B208" t="n">
+        <v>721.8128375436008</v>
+      </c>
+      <c r="C208" t="n">
+        <v>724.703523756054</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B209" t="n">
+        <v>721.3011243710025</v>
+      </c>
+      <c r="C209" t="n">
+        <v>724.1944674807619</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B210" t="n">
+        <v>721.5050934890896</v>
+      </c>
+      <c r="C210" t="n">
+        <v>724.3985785024724</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B211" t="n">
+        <v>721.232626035835</v>
+      </c>
+      <c r="C211" t="n">
+        <v>724.1261039362616</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B212" t="n">
+        <v>721.274328153022</v>
+      </c>
+      <c r="C212" t="n">
+        <v>724.1678251921367</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B213" t="n">
+        <v>721.0733066690937</v>
+      </c>
+      <c r="C213" t="n">
+        <v>723.9675624169649</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B214" t="n">
+        <v>721.1066456197386</v>
+      </c>
+      <c r="C214" t="n">
+        <v>724.000647427094</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B215" t="n">
+        <v>720.8522443025849</v>
+      </c>
+      <c r="C215" t="n">
+        <v>723.7472347409239</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="B216" t="n">
+        <v>720.596108344751</v>
+      </c>
+      <c r="C216" t="n">
+        <v>723.4918331881163</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B217" t="n">
+        <v>721.2327203676614</v>
+      </c>
+      <c r="C217" t="n">
+        <v>724.1286796390577</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B218" t="n">
+        <v>721.0610779400249</v>
+      </c>
+      <c r="C218" t="n">
+        <v>723.9585135220095</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B219" t="n">
+        <v>722.639170531651</v>
+      </c>
+      <c r="C219" t="n">
+        <v>725.538853690201</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B220" t="n">
+        <v>722.4201081830215</v>
+      </c>
+      <c r="C220" t="n">
+        <v>725.3197804530264</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B221" t="n">
+        <v>722.2833107982387</v>
+      </c>
+      <c r="C221" t="n">
+        <v>725.1833648456941</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B222" t="n">
+        <v>722.4368729120142</v>
+      </c>
+      <c r="C222" t="n">
+        <v>725.3369143761956</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B223" t="n">
+        <v>722.1819777062992</v>
+      </c>
+      <c r="C223" t="n">
+        <v>725.0825350584637</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B224" t="n">
+        <v>722.1393401266887</v>
+      </c>
+      <c r="C224" t="n">
+        <v>725.0399456275045</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B225" t="n">
+        <v>721.6853978882846</v>
+      </c>
+      <c r="C225" t="n">
+        <v>724.5859333530698</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B226" t="n">
+        <v>721.7298190041347</v>
+      </c>
+      <c r="C226" t="n">
+        <v>724.6302762372743</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B227" t="n">
+        <v>721.8804088897305</v>
+      </c>
+      <c r="C227" t="n">
+        <v>724.7806222319214</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B228" t="n">
+        <v>721.3430500051345</v>
+      </c>
+      <c r="C228" t="n">
+        <v>724.2437073874098</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B229" t="n">
+        <v>721.8731108063585</v>
+      </c>
+      <c r="C229" t="n">
+        <v>724.7739207584273</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B230" t="n">
+        <v>721.805390196314</v>
+      </c>
+      <c r="C230" t="n">
+        <v>724.7062843400763</v>
       </c>
     </row>
   </sheetData>
